--- a/CSDLGia_ASP/wwwroot/UpLoad/File/DinhGia/Excel/FileExcelGiaThueDN.xlsx
+++ b/CSDLGia_ASP/wwwroot/UpLoad/File/DinhGia/Excel/FileExcelGiaThueDN.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CSDLGia_ASP\CSDLGia_ASP\wwwroot\UpLoad\File\DinhGia\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CSDLGia_ASP\CSDLGia_ASP\wwwroot\UpLoad\File\DinhGia\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{741233A6-3D23-45EF-938A-401A1C0DFB7A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A51F3857-6C75-498F-BF9F-4DB6D3AA91BB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="11310" xr2:uid="{6AF4210B-D7D1-451E-A048-5B80F2CEA5CC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{6AF4210B-D7D1-451E-A048-5B80F2CEA5CC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,21 +25,33 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
-  <si>
-    <t>Phân loại</t>
-  </si>
-  <si>
-    <t>Giá</t>
-  </si>
-  <si>
-    <t>Đơn vị</t>
-  </si>
-  <si>
-    <t>m2</t>
-  </si>
-  <si>
-    <t>Nhà tường 110</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+  <si>
+    <t>Vị trí</t>
+  </si>
+  <si>
+    <t>Địa giới từ</t>
+  </si>
+  <si>
+    <t>Địa giới đến</t>
+  </si>
+  <si>
+    <t>Mô tả</t>
+  </si>
+  <si>
+    <t>Diện tích</t>
+  </si>
+  <si>
+    <t>Đơn giá</t>
+  </si>
+  <si>
+    <t>HN</t>
+  </si>
+  <si>
+    <t>HV</t>
+  </si>
+  <si>
+    <t>Đất đồng chũng</t>
   </si>
 </sst>
 </file>
@@ -392,10 +404,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD0BC2B6-4560-4170-B0EA-9A729F87B874}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -408,25 +420,43 @@
     <col min="6" max="6" width="27.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>4</v>
-      </c>
       <c r="B2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2">
+        <v>111</v>
+      </c>
+      <c r="F2">
         <v>5000</v>
       </c>
     </row>

--- a/CSDLGia_ASP/wwwroot/UpLoad/File/DinhGia/Excel/FileExcelGiaThueDN.xlsx
+++ b/CSDLGia_ASP/wwwroot/UpLoad/File/DinhGia/Excel/FileExcelGiaThueDN.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CSDLGia_ASP\CSDLGia_ASP\wwwroot\UpLoad\File\DinhGia\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WEB\ASP\CSDLGia_ASP\CSDLGia_ASP\wwwroot\UpLoad\File\DinhGia\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A51F3857-6C75-498F-BF9F-4DB6D3AA91BB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB5EAC77-312E-47EF-AF9C-8F655B344016}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{6AF4210B-D7D1-451E-A048-5B80F2CEA5CC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6AF4210B-D7D1-451E-A048-5B80F2CEA5CC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,46 +25,104 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
-  <si>
-    <t>Vị trí</t>
-  </si>
-  <si>
-    <t>Địa giới từ</t>
-  </si>
-  <si>
-    <t>Địa giới đến</t>
-  </si>
-  <si>
-    <t>Mô tả</t>
-  </si>
-  <si>
-    <t>Diện tích</t>
-  </si>
-  <si>
-    <t>Đơn giá</t>
-  </si>
-  <si>
-    <t>HN</t>
-  </si>
-  <si>
-    <t>HV</t>
-  </si>
-  <si>
-    <t>Đất đồng chũng</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+  <si>
+    <t>STT</t>
+  </si>
+  <si>
+    <t>Mã nhóm sản phẩm
+(không có bỏ trống)</t>
+  </si>
+  <si>
+    <t>Vị trí, địa bàn</t>
+  </si>
+  <si>
+    <t>Tỷ lệ %</t>
+  </si>
+  <si>
+    <t>Ngành, nghề đặc biệt ưu đãi đầu tư</t>
+  </si>
+  <si>
+    <t>Ngành, nghề khác</t>
+  </si>
+  <si>
+    <t>Ngành, nghề đặc biệt  đầu tư</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>Nhóm đất phi nông nghiệp</t>
+  </si>
+  <si>
+    <t>I</t>
+  </si>
+  <si>
+    <t>Thành phố Nha Trang</t>
+  </si>
+  <si>
+    <t>Các phường thuộc thành phố Nha Trang</t>
+  </si>
+  <si>
+    <t>Đường loại 1</t>
+  </si>
+  <si>
+    <t>1,1</t>
+  </si>
+  <si>
+    <t>DANH SÁCH GIÁ THUÊ ĐẤT, MẶT NƯỚC</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+  </numFmts>
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="163"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="163"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF3F4254"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F4254"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -76,7 +134,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -84,14 +142,68 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -404,63 +516,125 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD0BC2B6-4560-4170-B0EA-9A729F87B874}">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19" customWidth="1"/>
-    <col min="2" max="2" width="25.7109375" customWidth="1"/>
-    <col min="3" max="3" width="38.42578125" customWidth="1"/>
-    <col min="4" max="4" width="16.28515625" customWidth="1"/>
-    <col min="5" max="5" width="19.140625" customWidth="1"/>
-    <col min="6" max="6" width="27.140625" customWidth="1"/>
+    <col min="1" max="1" width="19" style="14" customWidth="1"/>
+    <col min="2" max="2" width="25.7109375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="35.7109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="18.42578125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="19.140625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="22.5703125" style="2" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+    </row>
+    <row r="2" spans="1:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+    </row>
+    <row r="3" spans="1:6" s="7" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="3"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="E3" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2">
+    <row r="4" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="8"/>
+      <c r="C4" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="11"/>
+      <c r="C5" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="10">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2">
-        <v>111</v>
-      </c>
-      <c r="F2">
-        <v>5000</v>
+      <c r="B6" s="11"/>
+      <c r="C6" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+    </row>
+    <row r="7" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="8"/>
+      <c r="C7" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="9">
+        <v>1</v>
+      </c>
+      <c r="E7" s="9">
+        <v>1.6</v>
+      </c>
+      <c r="F7" s="9">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:F2"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/CSDLGia_ASP/wwwroot/UpLoad/File/DinhGia/Excel/FileExcelGiaThueDN.xlsx
+++ b/CSDLGia_ASP/wwwroot/UpLoad/File/DinhGia/Excel/FileExcelGiaThueDN.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WEB\ASP\CSDLGia_ASP\CSDLGia_ASP\wwwroot\UpLoad\File\DinhGia\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\AspNetCore\net5\CSDLGia\CSDLGia_ASP\wwwroot\UpLoad\File\DinhGia\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB5EAC77-312E-47EF-AF9C-8F655B344016}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{627878EC-5B4B-4636-9561-6AEA1EC102A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6AF4210B-D7D1-451E-A048-5B80F2CEA5CC}"/>
+    <workbookView xWindow="34005" yWindow="1230" windowWidth="12195" windowHeight="11145" xr2:uid="{6AF4210B-D7D1-451E-A048-5B80F2CEA5CC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>STT</t>
   </si>
@@ -71,6 +71,21 @@
   </si>
   <si>
     <t>DANH SÁCH GIÁ THUÊ ĐẤT, MẶT NƯỚC</t>
+  </si>
+  <si>
+    <t>Đơn giá</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thành phố nha trang </t>
+  </si>
+  <si>
+    <t>70,0000,0000</t>
+  </si>
+  <si>
+    <t>DAT</t>
+  </si>
+  <si>
+    <t>NUOC</t>
   </si>
 </sst>
 </file>
@@ -78,15 +93,22 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="163"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -134,7 +156,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -157,49 +179,75 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -516,124 +564,148 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD0BC2B6-4560-4170-B0EA-9A729F87B874}">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A2:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19" style="14" customWidth="1"/>
-    <col min="2" max="2" width="25.7109375" style="2" customWidth="1"/>
-    <col min="3" max="3" width="35.7109375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="18.42578125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="19.140625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="22.5703125" style="2" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" width="19" style="8" customWidth="1"/>
+    <col min="2" max="2" width="35.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="18.42578125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="19.140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="22.5703125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="18.28515625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="18.85546875" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="2" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
     </row>
-    <row r="2" spans="1:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+    <row r="3" spans="1:7" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B3" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="3" t="s">
+    </row>
+    <row r="4" spans="1:7" s="4" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="11"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4" s="14"/>
+      <c r="G4" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" s="4" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="7"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>1</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="5"/>
+    </row>
+    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="18">
+        <v>1</v>
+      </c>
+      <c r="D8" s="18">
+        <v>1.6</v>
+      </c>
+      <c r="E8" s="18">
         <v>2</v>
       </c>
-      <c r="D2" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="1"/>
     </row>
-    <row r="3" spans="1:6" s="7" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="3"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="8"/>
-      <c r="C4" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="11"/>
-      <c r="C5" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="10">
-        <v>1</v>
-      </c>
-      <c r="B6" s="11"/>
-      <c r="C6" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-    </row>
-    <row r="7" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" s="8"/>
-      <c r="C7" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" s="9">
-        <v>1</v>
-      </c>
-      <c r="E7" s="9">
-        <v>1.6</v>
-      </c>
-      <c r="F7" s="9">
-        <v>2</v>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="2"/>
+      <c r="B9" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G9" s="13" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:F2"/>
+  <mergeCells count="4">
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:E3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/CSDLGia_ASP/wwwroot/UpLoad/File/DinhGia/Excel/FileExcelGiaThueDN.xlsx
+++ b/CSDLGia_ASP/wwwroot/UpLoad/File/DinhGia/Excel/FileExcelGiaThueDN.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\AspNetCore\net5\CSDLGia\CSDLGia_ASP\wwwroot\UpLoad\File\DinhGia\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{627878EC-5B4B-4636-9561-6AEA1EC102A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2E06EAB-704B-47C4-9324-DD472E1594BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="34005" yWindow="1230" windowWidth="12195" windowHeight="11145" xr2:uid="{6AF4210B-D7D1-451E-A048-5B80F2CEA5CC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6AF4210B-D7D1-451E-A048-5B80F2CEA5CC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,67 +25,67 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="20">
   <si>
     <t>STT</t>
   </si>
   <si>
+    <t>Vị trí, địa bàn</t>
+  </si>
+  <si>
+    <t>Tỷ lệ %</t>
+  </si>
+  <si>
+    <t>Ngành, nghề đặc biệt ưu đãi đầu tư</t>
+  </si>
+  <si>
+    <t>Ngành, nghề khác</t>
+  </si>
+  <si>
+    <t>Ngành, nghề đặc biệt  đầu tư</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>Nhóm đất phi nông nghiệp</t>
+  </si>
+  <si>
+    <t>I</t>
+  </si>
+  <si>
+    <t>Thành phố Nha Trang</t>
+  </si>
+  <si>
+    <t>Các phường thuộc thành phố Nha Trang</t>
+  </si>
+  <si>
+    <t>Đường loại 1</t>
+  </si>
+  <si>
+    <t>1,1</t>
+  </si>
+  <si>
+    <t>DANH SÁCH GIÁ THUÊ ĐẤT, MẶT NƯỚC</t>
+  </si>
+  <si>
+    <t>Đơn giá</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thành phố nha trang </t>
+  </si>
+  <si>
+    <t>70,0000,0000</t>
+  </si>
+  <si>
+    <t>DAT</t>
+  </si>
+  <si>
+    <t>NUOC</t>
+  </si>
+  <si>
     <t>Mã nhóm sản phẩm
-(không có bỏ trống)</t>
-  </si>
-  <si>
-    <t>Vị trí, địa bàn</t>
-  </si>
-  <si>
-    <t>Tỷ lệ %</t>
-  </si>
-  <si>
-    <t>Ngành, nghề đặc biệt ưu đãi đầu tư</t>
-  </si>
-  <si>
-    <t>Ngành, nghề khác</t>
-  </si>
-  <si>
-    <t>Ngành, nghề đặc biệt  đầu tư</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>Nhóm đất phi nông nghiệp</t>
-  </si>
-  <si>
-    <t>I</t>
-  </si>
-  <si>
-    <t>Thành phố Nha Trang</t>
-  </si>
-  <si>
-    <t>Các phường thuộc thành phố Nha Trang</t>
-  </si>
-  <si>
-    <t>Đường loại 1</t>
-  </si>
-  <si>
-    <t>1,1</t>
-  </si>
-  <si>
-    <t>DANH SÁCH GIÁ THUÊ ĐẤT, MẶT NƯỚC</t>
-  </si>
-  <si>
-    <t>Đơn giá</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Thành phố nha trang </t>
-  </si>
-  <si>
-    <t>70,0000,0000</t>
-  </si>
-  <si>
-    <t>DAT</t>
-  </si>
-  <si>
-    <t>NUOC</t>
+(lấy trong danh mục</t>
   </si>
 </sst>
 </file>
@@ -95,13 +95,20 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="163"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -156,7 +163,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -192,62 +199,71 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -564,10 +580,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD0BC2B6-4560-4170-B0EA-9A729F87B874}">
-  <dimension ref="A2:G9"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -582,67 +598,84 @@
     <col min="8" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
+    <row r="1" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+    </row>
+    <row r="2" spans="1:7" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
+      <c r="G2" s="19" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="3" spans="1:7" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="12" t="s">
+    <row r="3" spans="1:7" s="4" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="17"/>
+      <c r="B3" s="17"/>
+      <c r="C3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="G3" s="20" t="s">
-        <v>1</v>
-      </c>
+      <c r="D3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
     </row>
-    <row r="4" spans="1:7" s="4" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="11"/>
-      <c r="B4" s="11"/>
-      <c r="C4" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D4" s="3" t="s">
+    <row r="4" spans="1:7" s="4" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F4" s="14"/>
+      <c r="B4" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="11"/>
       <c r="G4" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:7" s="4" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="9" t="s">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="7"/>
+      <c r="B5" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="5" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>9</v>
+      <c r="A6" s="2">
+        <v>1</v>
       </c>
       <c r="B6" s="7" t="s">
         <v>10</v>
@@ -651,61 +684,52 @@
       <c r="D6" s="7"/>
       <c r="E6" s="7"/>
       <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
+      <c r="G6" s="5" t="s">
+        <v>17</v>
+      </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
+    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="15">
         <v>1</v>
       </c>
-      <c r="B7" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="5"/>
+      <c r="D7" s="15">
+        <v>1.6</v>
+      </c>
+      <c r="E7" s="15">
+        <v>2</v>
+      </c>
+      <c r="F7" s="16"/>
+      <c r="G7" s="5" t="s">
+        <v>17</v>
+      </c>
     </row>
-    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" s="18">
-        <v>1</v>
-      </c>
-      <c r="D8" s="18">
-        <v>1.6</v>
-      </c>
-      <c r="E8" s="18">
-        <v>2</v>
-      </c>
-      <c r="F8" s="19"/>
-      <c r="G8" s="1"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="2"/>
-      <c r="B9" s="13" t="s">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="2"/>
+      <c r="B8" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="G9" s="13" t="s">
-        <v>19</v>
+      <c r="G8" s="10" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="A1:G1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/CSDLGia_ASP/wwwroot/UpLoad/File/DinhGia/Excel/FileExcelGiaThueDN.xlsx
+++ b/CSDLGia_ASP/wwwroot/UpLoad/File/DinhGia/Excel/FileExcelGiaThueDN.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\AspNetCore\net5\CSDLGia\CSDLGia_ASP\wwwroot\UpLoad\File\DinhGia\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2E06EAB-704B-47C4-9324-DD472E1594BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E023E816-00B0-46FA-AE5A-304E9F6B99DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6AF4210B-D7D1-451E-A048-5B80F2CEA5CC}"/>
   </bookViews>
@@ -75,9 +75,6 @@
     <t xml:space="preserve">Thành phố nha trang </t>
   </si>
   <si>
-    <t>70,0000,0000</t>
-  </si>
-  <si>
     <t>DAT</t>
   </si>
   <si>
@@ -86,6 +83,9 @@
   <si>
     <t>Mã nhóm sản phẩm
 (lấy trong danh mục</t>
+  </si>
+  <si>
+    <t>Time</t>
   </si>
 </sst>
 </file>
@@ -93,9 +93,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -112,47 +112,36 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="14"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="163"/>
-      <scheme val="minor"/>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FF3F4254"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
     <font>
-      <sz val="20"/>
+      <b/>
+      <sz val="14"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <sz val="14"/>
+      <color rgb="FF3F4254"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FF3F4254"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F4254"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -209,66 +198,81 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="2" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="6" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+  <cellStyles count="3">
+    <cellStyle name="Comma 2" xfId="2" xr:uid="{C4D59EAB-9AAC-4AC1-AAC7-7316B0176D8B}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{2A5FF326-B83B-4CF7-9811-2887AB12DD02}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -580,15 +584,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD0BC2B6-4560-4170-B0EA-9A729F87B874}">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection sqref="A1:G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19" style="8" customWidth="1"/>
+    <col min="1" max="1" width="19" style="24" customWidth="1"/>
     <col min="2" max="2" width="35.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="18.42578125" style="1" customWidth="1"/>
     <col min="4" max="4" width="19.140625" style="1" customWidth="1"/>
@@ -598,130 +602,137 @@
     <col min="8" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="20" t="s">
+    <row r="1" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-    </row>
-    <row r="2" spans="1:7" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="17" t="s">
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+    </row>
+    <row r="2" spans="1:7" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="18" t="s">
+      <c r="C2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="12" t="s">
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="19" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" s="4" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="17"/>
-      <c r="B3" s="17"/>
-      <c r="C3" s="3" t="s">
+      <c r="G2" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" s="7" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
-    </row>
-    <row r="4" spans="1:7" s="4" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+    </row>
+    <row r="4" spans="1:7" s="12" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="8" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
       <c r="F4" s="11"/>
-      <c r="G4" s="5" t="s">
+      <c r="G4" s="8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="15" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="13">
+        <v>1</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="15" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="18">
+        <v>1</v>
+      </c>
+      <c r="D7" s="18">
+        <v>1.6</v>
+      </c>
+      <c r="E7" s="18">
+        <v>2</v>
+      </c>
+      <c r="F7" s="19"/>
+      <c r="G7" s="15" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="20">
+        <v>1</v>
+      </c>
+      <c r="B8" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="21"/>
+      <c r="D8" s="21"/>
+      <c r="E8" s="21"/>
+      <c r="F8" s="22">
+        <v>700000000</v>
+      </c>
+      <c r="G8" s="11" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
-        <v>1</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="15">
-        <v>1</v>
-      </c>
-      <c r="D7" s="15">
-        <v>1.6</v>
-      </c>
-      <c r="E7" s="15">
-        <v>2</v>
-      </c>
-      <c r="F7" s="16"/>
-      <c r="G7" s="5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="2"/>
-      <c r="B8" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="G8" s="10" t="s">
-        <v>18</v>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D10" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/CSDLGia_ASP/wwwroot/UpLoad/File/DinhGia/Excel/FileExcelGiaThueDN.xlsx
+++ b/CSDLGia_ASP/wwwroot/UpLoad/File/DinhGia/Excel/FileExcelGiaThueDN.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\AspNetCore\net5\CSDLGia\CSDLGia_ASP\wwwroot\UpLoad\File\DinhGia\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\excel csdlgia\CSDLGia_ASP\CSDLGia_ASP\wwwroot\UpLoad\File\DinhGia\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E023E816-00B0-46FA-AE5A-304E9F6B99DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E457AFF6-4EA0-4829-A784-7635DDA6F8D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6AF4210B-D7D1-451E-A048-5B80F2CEA5CC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="19">
   <si>
     <t>STT</t>
   </si>
@@ -81,11 +81,7 @@
     <t>NUOC</t>
   </si>
   <si>
-    <t>Mã nhóm sản phẩm
-(lấy trong danh mục</t>
-  </si>
-  <si>
-    <t>Time</t>
+    <t>Mã nhóm sản phẩm (lấy trong danh mục)</t>
   </si>
 </sst>
 </file>
@@ -99,7 +95,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <charset val="163"/>
       <scheme val="minor"/>
@@ -107,7 +103,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -120,24 +116,23 @@
     <font>
       <b/>
       <sz val="14"/>
-      <color rgb="FF3F4254"/>
+      <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
     <font>
       <b/>
       <sz val="14"/>
-      <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
     <font>
       <sz val="14"/>
-      <color rgb="FF3F4254"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
     <font>
+      <b/>
       <sz val="16"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
@@ -152,7 +147,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -197,50 +192,77 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="4" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -250,20 +272,20 @@
     <xf numFmtId="49" fontId="5" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="5" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -584,57 +606,57 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD0BC2B6-4560-4170-B0EA-9A729F87B874}">
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19" style="24" customWidth="1"/>
-    <col min="2" max="2" width="35.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="18.42578125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="19.140625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="22.5703125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="18.28515625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="18.85546875" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="19" style="5" customWidth="1"/>
+    <col min="2" max="2" width="39.75" style="1" customWidth="1"/>
+    <col min="3" max="3" width="18.375" style="7" customWidth="1"/>
+    <col min="4" max="4" width="19.125" style="7" customWidth="1"/>
+    <col min="5" max="5" width="22.625" style="7" customWidth="1"/>
+    <col min="6" max="6" width="18.25" style="8" customWidth="1"/>
+    <col min="7" max="7" width="18.875" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
     </row>
     <row r="2" spans="1:7" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="4" t="s">
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="13" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:7" s="7" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
+    <row r="3" spans="1:7" s="2" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="9"/>
+      <c r="B3" s="9"/>
       <c r="C3" s="6" t="s">
         <v>3</v>
       </c>
@@ -644,104 +666,109 @@
       <c r="E3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="14"/>
     </row>
-    <row r="4" spans="1:7" s="12" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="8" t="s">
+    <row r="4" spans="1:7" s="3" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="8" t="s">
+      <c r="C4" s="17"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="15" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="13" t="s">
+      <c r="A5" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="14" t="s">
+      <c r="B5" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="14"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="15" t="s">
+      <c r="C5" s="21"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="21"/>
+      <c r="F5" s="22"/>
+      <c r="G5" s="23" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="13">
+      <c r="A6" s="19">
         <v>1</v>
       </c>
-      <c r="B6" s="14" t="s">
+      <c r="B6" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="14"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="15" t="s">
+      <c r="C6" s="21"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="22"/>
+      <c r="G6" s="23" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="16" t="s">
+    <row r="7" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="17" t="s">
+      <c r="B7" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="18">
+      <c r="C7" s="26">
         <v>1</v>
       </c>
-      <c r="D7" s="18">
+      <c r="D7" s="26">
         <v>1.6</v>
       </c>
-      <c r="E7" s="18">
+      <c r="E7" s="26">
         <v>2</v>
       </c>
-      <c r="F7" s="19"/>
-      <c r="G7" s="15" t="s">
+      <c r="F7" s="27"/>
+      <c r="G7" s="23" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="20">
+    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="28">
         <v>1</v>
       </c>
-      <c r="B8" s="21" t="s">
+      <c r="B8" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="21"/>
-      <c r="D8" s="21"/>
-      <c r="E8" s="21"/>
-      <c r="F8" s="22">
+      <c r="C8" s="30"/>
+      <c r="D8" s="30"/>
+      <c r="E8" s="30"/>
+      <c r="F8" s="31">
         <v>700000000</v>
       </c>
-      <c r="G8" s="11" t="s">
+      <c r="G8" s="32" t="s">
         <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="D10" s="1" t="s">
-        <v>19</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="6">
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="C2:E2"/>
     <mergeCell ref="A1:G1"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="G2:G3"/>
   </mergeCells>
+  <dataValidations count="2">
+    <dataValidation type="decimal" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Lỗi định dạng giá trị" error="Giá trị vừa nhập có định dạng không hợp lệ" sqref="C4:E1048576" xr:uid="{0E5C20B4-1849-4A27-B574-82996F070412}">
+      <formula1>0</formula1>
+    </dataValidation>
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Lỗi định dạng giá trị" error="Giá trị vừa nhập có định dạng không hợp lệ" sqref="F4:F1048576" xr:uid="{C7D18A20-3EF2-4FE8-8AFE-EAEED2170560}">
+      <formula1>0</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>